--- a/resources/import_example.xlsx
+++ b/resources/import_example.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">product_name</t>
   </si>
@@ -31,9 +31,6 @@
     <t xml:space="preserve">download_link</t>
   </si>
   <si>
-    <t xml:space="preserve">link_password</t>
-  </si>
-  <si>
     <t xml:space="preserve">category_id</t>
   </si>
   <si>
@@ -50,9 +47,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://google.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password</t>
   </si>
   <si>
     <t xml:space="preserve">В дальнейшем превью можно будет загрузить из админки</t>
@@ -144,7 +138,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -171,10 +165,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -426,10 +416,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -437,17 +427,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="20.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="25.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="20.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="27.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="49.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="27.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="20.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="49.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="27.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="21.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -463,41 +452,34 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
